--- a/010_設計書/900_サーバ/010_テーブル定義書/テーブル定義書.xlsx
+++ b/010_設計書/900_サーバ/010_テーブル定義書/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\gw\tunag-app-documents\010_設計書\900_サーバ\010_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F86AEA-1CB7-4D61-BF99-40D04B83CC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664222F-1C6D-4DDA-9CED-3CF74219CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="0" windowWidth="24645" windowHeight="15480" activeTab="1" xr2:uid="{7C06B2B9-F819-4B4C-AD73-7D03A77EEA76}"/>
+    <workbookView xWindow="-27240" yWindow="285" windowWidth="24645" windowHeight="15480" activeTab="2" xr2:uid="{7C06B2B9-F819-4B4C-AD73-7D03A77EEA76}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>案件番号</t>
     <rPh sb="0" eb="2">
@@ -436,6 +436,10 @@
     <t>デバイストークン</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -752,13 +756,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2164,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B73AD-E45A-4918-8B78-88C3E9540547}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ22" sqref="AZ22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2453,939 +2457,941 @@
       <c r="AO6" s="24"/>
     </row>
     <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28" t="s">
+      <c r="W7" s="28"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
     </row>
     <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
     </row>
     <row r="12" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
     </row>
     <row r="13" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
     </row>
     <row r="17" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
     </row>
     <row r="19" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
     </row>
     <row r="21" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
     </row>
     <row r="22" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
     </row>
     <row r="23" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
     </row>
     <row r="25" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="198">
@@ -3557,12 +3563,6 @@
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="AB7:AO7"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="P4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
@@ -3587,6 +3587,12 @@
     <mergeCell ref="P2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="P4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3597,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D5A40F-76FF-4A9B-949C-77007F835516}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3886,994 +3892,994 @@
       <c r="AO6" s="24"/>
     </row>
     <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28" t="s">
+      <c r="W7" s="28"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
     </row>
     <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28" t="s">
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
     </row>
     <row r="12" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
     </row>
     <row r="13" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
     </row>
     <row r="17" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
     </row>
     <row r="19" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
     </row>
     <row r="21" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
     </row>
     <row r="22" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
     </row>
     <row r="23" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
     </row>
     <row r="25" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
     <row r="28" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="206">
@@ -5382,907 +5388,907 @@
       <c r="AO6" s="24"/>
     </row>
     <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
     </row>
     <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
     </row>
     <row r="12" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
     </row>
     <row r="13" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
     </row>
     <row r="17" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
     </row>
     <row r="19" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
     </row>
     <row r="21" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
     </row>
     <row r="22" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
     </row>
     <row r="23" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
     </row>
     <row r="25" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="198">
@@ -6783,907 +6789,907 @@
       <c r="AO6" s="24"/>
     </row>
     <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
     </row>
     <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
     </row>
     <row r="12" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
     </row>
     <row r="13" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
     </row>
     <row r="17" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
     </row>
     <row r="19" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
     </row>
     <row r="21" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
     </row>
     <row r="22" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
     </row>
     <row r="23" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
     </row>
     <row r="25" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="198">
